--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.2453551238719</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H2">
-        <v>35.2453551238719</v>
+        <v>110.359402</v>
       </c>
       <c r="I2">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J2">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.47223863745754</v>
+        <v>2.542241666666667</v>
       </c>
       <c r="N2">
-        <v>2.47223863745754</v>
+        <v>7.626725</v>
       </c>
       <c r="O2">
-        <v>0.09236541223014499</v>
+        <v>0.0927433376460277</v>
       </c>
       <c r="P2">
-        <v>0.09236541223014499</v>
+        <v>0.0927433376460277</v>
       </c>
       <c r="Q2">
-        <v>87.1349287281482</v>
+        <v>93.52009002427224</v>
       </c>
       <c r="R2">
-        <v>87.1349287281482</v>
+        <v>841.6808102184501</v>
       </c>
       <c r="S2">
-        <v>0.01427477905018937</v>
+        <v>0.01462508619014777</v>
       </c>
       <c r="T2">
-        <v>0.01427477905018937</v>
+        <v>0.01462508619014777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.2453551238719</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H3">
-        <v>35.2453551238719</v>
+        <v>110.359402</v>
       </c>
       <c r="I3">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J3">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.5220612723562</v>
+        <v>11.57398566666667</v>
       </c>
       <c r="N3">
-        <v>11.5220612723562</v>
+        <v>34.721957</v>
       </c>
       <c r="O3">
-        <v>0.4304762182087074</v>
+        <v>0.4222297489134398</v>
       </c>
       <c r="P3">
-        <v>0.4304762182087074</v>
+        <v>0.4222297489134398</v>
       </c>
       <c r="Q3">
-        <v>406.0991413032056</v>
+        <v>425.7660456433015</v>
       </c>
       <c r="R3">
-        <v>406.0991413032056</v>
+        <v>3831.894410789714</v>
       </c>
       <c r="S3">
-        <v>0.06652872274287208</v>
+        <v>0.06658318135446138</v>
       </c>
       <c r="T3">
-        <v>0.06652872274287208</v>
+        <v>0.06658318135446141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.2453551238719</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H4">
-        <v>35.2453551238719</v>
+        <v>110.359402</v>
       </c>
       <c r="I4">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J4">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.72838380170019</v>
+        <v>4.162937</v>
       </c>
       <c r="N4">
-        <v>3.72838380170019</v>
+        <v>12.488811</v>
       </c>
       <c r="O4">
-        <v>0.13929630480591</v>
+        <v>0.1518678089704853</v>
       </c>
       <c r="P4">
-        <v>0.13929630480591</v>
+        <v>0.1518678089704853</v>
       </c>
       <c r="Q4">
-        <v>131.4082111290148</v>
+        <v>153.1397459612247</v>
       </c>
       <c r="R4">
-        <v>131.4082111290148</v>
+        <v>1378.257713651022</v>
       </c>
       <c r="S4">
-        <v>0.0215277983998781</v>
+        <v>0.0239486722397183</v>
       </c>
       <c r="T4">
-        <v>0.0215277983998781</v>
+        <v>0.0239486722397183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.2453551238719</v>
+        <v>36.78646733333333</v>
       </c>
       <c r="H5">
-        <v>35.2453551238719</v>
+        <v>110.359402</v>
       </c>
       <c r="I5">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="J5">
-        <v>0.1545468017251002</v>
+        <v>0.1576941973553631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.043164864980421</v>
+        <v>9.132418333333334</v>
       </c>
       <c r="N5">
-        <v>9.043164864980421</v>
+        <v>27.397255</v>
       </c>
       <c r="O5">
-        <v>0.3378620647552377</v>
+        <v>0.3331591044700472</v>
       </c>
       <c r="P5">
-        <v>0.3378620647552377</v>
+        <v>0.3331591044700472</v>
       </c>
       <c r="Q5">
-        <v>318.729557109956</v>
+        <v>335.9494086935011</v>
       </c>
       <c r="R5">
-        <v>318.729557109956</v>
+        <v>3023.54467824151</v>
       </c>
       <c r="S5">
-        <v>0.0522155015321607</v>
+        <v>0.05253725757103565</v>
       </c>
       <c r="T5">
-        <v>0.0522155015321607</v>
+        <v>0.05253725757103566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>103.889030095638</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H6">
-        <v>103.889030095638</v>
+        <v>311.757874</v>
       </c>
       <c r="I6">
-        <v>0.4555413693286609</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J6">
-        <v>0.4555413693286609</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47223863745754</v>
+        <v>2.542241666666667</v>
       </c>
       <c r="N6">
-        <v>2.47223863745754</v>
+        <v>7.626725</v>
       </c>
       <c r="O6">
-        <v>0.09236541223014499</v>
+        <v>0.0927433376460277</v>
       </c>
       <c r="P6">
-        <v>0.09236541223014499</v>
+        <v>0.0927433376460277</v>
       </c>
       <c r="Q6">
-        <v>256.8384742104255</v>
+        <v>264.1879523980722</v>
       </c>
       <c r="R6">
-        <v>256.8384742104255</v>
+        <v>2377.69157158265</v>
       </c>
       <c r="S6">
-        <v>0.04207626636592649</v>
+        <v>0.04131488296490795</v>
       </c>
       <c r="T6">
-        <v>0.04207626636592649</v>
+        <v>0.04131488296490796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>103.889030095638</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H7">
-        <v>103.889030095638</v>
+        <v>311.757874</v>
       </c>
       <c r="I7">
-        <v>0.4555413693286609</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J7">
-        <v>0.4555413693286609</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5220612723562</v>
+        <v>11.57398566666667</v>
       </c>
       <c r="N7">
-        <v>11.5220612723562</v>
+        <v>34.721957</v>
       </c>
       <c r="O7">
-        <v>0.4304762182087074</v>
+        <v>0.4222297489134398</v>
       </c>
       <c r="P7">
-        <v>0.4304762182087074</v>
+        <v>0.4222297489134398</v>
       </c>
       <c r="Q7">
-        <v>1197.015770287599</v>
+        <v>1202.760388382157</v>
       </c>
       <c r="R7">
-        <v>1197.015770287599</v>
+        <v>10824.84349543942</v>
       </c>
       <c r="S7">
-        <v>0.196099725906218</v>
+        <v>0.188093000569388</v>
       </c>
       <c r="T7">
-        <v>0.196099725906218</v>
+        <v>0.1880930005693881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>103.889030095638</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H8">
-        <v>103.889030095638</v>
+        <v>311.757874</v>
       </c>
       <c r="I8">
-        <v>0.4555413693286609</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J8">
-        <v>0.4555413693286609</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.72838380170019</v>
+        <v>4.162937</v>
       </c>
       <c r="N8">
-        <v>3.72838380170019</v>
+        <v>12.488811</v>
       </c>
       <c r="O8">
-        <v>0.13929630480591</v>
+        <v>0.1518678089704853</v>
       </c>
       <c r="P8">
-        <v>0.13929630480591</v>
+        <v>0.1518678089704853</v>
       </c>
       <c r="Q8">
-        <v>387.3381769829203</v>
+        <v>432.6094629053127</v>
       </c>
       <c r="R8">
-        <v>387.3381769829203</v>
+        <v>3893.485166147814</v>
       </c>
       <c r="S8">
-        <v>0.06345522943370677</v>
+        <v>0.06765338527819673</v>
       </c>
       <c r="T8">
-        <v>0.06345522943370677</v>
+        <v>0.06765338527819674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>103.889030095638</v>
+        <v>103.9192913333333</v>
       </c>
       <c r="H9">
-        <v>103.889030095638</v>
+        <v>311.757874</v>
       </c>
       <c r="I9">
-        <v>0.4555413693286609</v>
+        <v>0.445475481188675</v>
       </c>
       <c r="J9">
-        <v>0.4555413693286609</v>
+        <v>0.4454754811886751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.043164864980421</v>
+        <v>9.132418333333334</v>
       </c>
       <c r="N9">
-        <v>9.043164864980421</v>
+        <v>27.397255</v>
       </c>
       <c r="O9">
-        <v>0.3378620647552377</v>
+        <v>0.3331591044700472</v>
       </c>
       <c r="P9">
-        <v>0.3378620647552377</v>
+        <v>0.3331591044700472</v>
       </c>
       <c r="Q9">
-        <v>939.4856268177671</v>
+        <v>949.0344413595411</v>
       </c>
       <c r="R9">
-        <v>939.4856268177671</v>
+        <v>8541.309972235871</v>
       </c>
       <c r="S9">
-        <v>0.1539101476228097</v>
+        <v>0.1484142123761823</v>
       </c>
       <c r="T9">
-        <v>0.1539101476228097</v>
+        <v>0.1484142123761823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.4245107335364</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H10">
-        <v>39.4245107335364</v>
+        <v>129.162961</v>
       </c>
       <c r="I10">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J10">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.47223863745754</v>
+        <v>2.542241666666667</v>
       </c>
       <c r="N10">
-        <v>2.47223863745754</v>
+        <v>7.626725</v>
       </c>
       <c r="O10">
-        <v>0.09236541223014499</v>
+        <v>0.0927433376460277</v>
       </c>
       <c r="P10">
-        <v>0.09236541223014499</v>
+        <v>0.0927433376460277</v>
       </c>
       <c r="Q10">
-        <v>97.4667986983082</v>
+        <v>109.4544870814139</v>
       </c>
       <c r="R10">
-        <v>97.4667986983082</v>
+        <v>985.0903837327251</v>
       </c>
       <c r="S10">
-        <v>0.0159673857138094</v>
+        <v>0.01711697782849253</v>
       </c>
       <c r="T10">
-        <v>0.0159673857138094</v>
+        <v>0.01711697782849254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.4245107335364</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H11">
-        <v>39.4245107335364</v>
+        <v>129.162961</v>
       </c>
       <c r="I11">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J11">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.5220612723562</v>
+        <v>11.57398566666667</v>
       </c>
       <c r="N11">
-        <v>11.5220612723562</v>
+        <v>34.721957</v>
       </c>
       <c r="O11">
-        <v>0.4304762182087074</v>
+        <v>0.4222297489134398</v>
       </c>
       <c r="P11">
-        <v>0.4304762182087074</v>
+        <v>0.4222297489134398</v>
       </c>
       <c r="Q11">
-        <v>454.2516283044711</v>
+        <v>498.3100864260751</v>
       </c>
       <c r="R11">
-        <v>454.2516283044711</v>
+        <v>4484.790777834676</v>
       </c>
       <c r="S11">
-        <v>0.07441724830539007</v>
+        <v>0.07792793999139486</v>
       </c>
       <c r="T11">
-        <v>0.07441724830539007</v>
+        <v>0.07792793999139488</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.4245107335364</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H12">
-        <v>39.4245107335364</v>
+        <v>129.162961</v>
       </c>
       <c r="I12">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J12">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.72838380170019</v>
+        <v>4.162937</v>
       </c>
       <c r="N12">
-        <v>3.72838380170019</v>
+        <v>12.488811</v>
       </c>
       <c r="O12">
-        <v>0.13929630480591</v>
+        <v>0.1518678089704853</v>
       </c>
       <c r="P12">
-        <v>0.13929630480591</v>
+        <v>0.1518678089704853</v>
       </c>
       <c r="Q12">
-        <v>146.9897072088724</v>
+        <v>179.2324231254857</v>
       </c>
       <c r="R12">
-        <v>146.9897072088724</v>
+        <v>1613.091808129371</v>
       </c>
       <c r="S12">
-        <v>0.02408041899712784</v>
+        <v>0.02802916074609136</v>
       </c>
       <c r="T12">
-        <v>0.02408041899712784</v>
+        <v>0.02802916074609137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.4245107335364</v>
+        <v>43.05432033333333</v>
       </c>
       <c r="H13">
-        <v>39.4245107335364</v>
+        <v>129.162961</v>
       </c>
       <c r="I13">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="J13">
-        <v>0.1728719152362336</v>
+        <v>0.1845628835768525</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.043164864980421</v>
+        <v>9.132418333333334</v>
       </c>
       <c r="N13">
-        <v>9.043164864980421</v>
+        <v>27.397255</v>
       </c>
       <c r="O13">
-        <v>0.3378620647552377</v>
+        <v>0.3331591044700472</v>
       </c>
       <c r="P13">
-        <v>0.3378620647552377</v>
+        <v>0.3331591044700472</v>
       </c>
       <c r="Q13">
-        <v>356.5223502845599</v>
+        <v>393.1900643413395</v>
       </c>
       <c r="R13">
-        <v>356.5223502845599</v>
+        <v>3538.710579072055</v>
       </c>
       <c r="S13">
-        <v>0.05840686221990633</v>
+        <v>0.06148880501087376</v>
       </c>
       <c r="T13">
-        <v>0.05840686221990633</v>
+        <v>0.06148880501087377</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.4972962842055</v>
+        <v>49.51716233333334</v>
       </c>
       <c r="H14">
-        <v>49.4972962842055</v>
+        <v>148.551487</v>
       </c>
       <c r="I14">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="J14">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.47223863745754</v>
+        <v>2.542241666666667</v>
       </c>
       <c r="N14">
-        <v>2.47223863745754</v>
+        <v>7.626725</v>
       </c>
       <c r="O14">
-        <v>0.09236541223014499</v>
+        <v>0.0927433376460277</v>
       </c>
       <c r="P14">
-        <v>0.09236541223014499</v>
+        <v>0.0927433376460277</v>
       </c>
       <c r="Q14">
-        <v>122.3691283234964</v>
+        <v>125.8845932988972</v>
       </c>
       <c r="R14">
-        <v>122.3691283234964</v>
+        <v>1132.961339690075</v>
       </c>
       <c r="S14">
-        <v>0.02004698110021973</v>
+        <v>0.01968639066247945</v>
       </c>
       <c r="T14">
-        <v>0.02004698110021973</v>
+        <v>0.01968639066247945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.4972962842055</v>
+        <v>49.51716233333334</v>
       </c>
       <c r="H15">
-        <v>49.4972962842055</v>
+        <v>148.551487</v>
       </c>
       <c r="I15">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="J15">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.5220612723562</v>
+        <v>11.57398566666667</v>
       </c>
       <c r="N15">
-        <v>11.5220612723562</v>
+        <v>34.721957</v>
       </c>
       <c r="O15">
-        <v>0.4304762182087074</v>
+        <v>0.4222297489134398</v>
       </c>
       <c r="P15">
-        <v>0.4304762182087074</v>
+        <v>0.4222297489134398</v>
       </c>
       <c r="Q15">
-        <v>570.3108806025846</v>
+        <v>573.1109271000065</v>
       </c>
       <c r="R15">
-        <v>570.3108806025846</v>
+        <v>5157.998343900059</v>
       </c>
       <c r="S15">
-        <v>0.09343052125422723</v>
+        <v>0.08962562699819553</v>
       </c>
       <c r="T15">
-        <v>0.09343052125422723</v>
+        <v>0.08962562699819555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.4972962842055</v>
+        <v>49.51716233333334</v>
       </c>
       <c r="H16">
-        <v>49.4972962842055</v>
+        <v>148.551487</v>
       </c>
       <c r="I16">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="J16">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.72838380170019</v>
+        <v>4.162937</v>
       </c>
       <c r="N16">
-        <v>3.72838380170019</v>
+        <v>12.488811</v>
       </c>
       <c r="O16">
-        <v>0.13929630480591</v>
+        <v>0.1518678089704853</v>
       </c>
       <c r="P16">
-        <v>0.13929630480591</v>
+        <v>0.1518678089704853</v>
       </c>
       <c r="Q16">
-        <v>184.5449176939868</v>
+        <v>206.1368272124397</v>
       </c>
       <c r="R16">
-        <v>184.5449176939868</v>
+        <v>1855.231444911957</v>
       </c>
       <c r="S16">
-        <v>0.0302328579751973</v>
+        <v>0.03223659070647894</v>
       </c>
       <c r="T16">
-        <v>0.0302328579751973</v>
+        <v>0.03223659070647895</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.4972962842055</v>
+        <v>49.51716233333334</v>
       </c>
       <c r="H17">
-        <v>49.4972962842055</v>
+        <v>148.551487</v>
       </c>
       <c r="I17">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="J17">
-        <v>0.2170399137100052</v>
+        <v>0.2122674378791094</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.043164864980421</v>
+        <v>9.132418333333334</v>
       </c>
       <c r="N17">
-        <v>9.043164864980421</v>
+        <v>27.397255</v>
       </c>
       <c r="O17">
-        <v>0.3378620647552377</v>
+        <v>0.3331591044700472</v>
       </c>
       <c r="P17">
-        <v>0.3378620647552377</v>
+        <v>0.3331591044700472</v>
       </c>
       <c r="Q17">
-        <v>447.6122106688531</v>
+        <v>452.2114411075762</v>
       </c>
       <c r="R17">
-        <v>447.6122106688531</v>
+        <v>4069.902969968186</v>
       </c>
       <c r="S17">
-        <v>0.073329553380361</v>
+        <v>0.07071882951195545</v>
       </c>
       <c r="T17">
-        <v>0.073329553380361</v>
+        <v>0.07071882951195545</v>
       </c>
     </row>
   </sheetData>
